--- a/inputs/cert_list_test.xlsx
+++ b/inputs/cert_list_test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripadvisor-my.sharepoint.com/personal/sokeeffe_tripadvisor_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82627789-EA7E-478C-B5A2-58CBCA1809EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DA3E0087-910C-43C6-8FAA-2488D8E14BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{031C77C5-39FD-4A1A-B0E1-DA34E94F5509}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cert_list_test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Firstname</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Instructor</t>
+  </si>
+  <si>
+    <t>Multiple Name</t>
+  </si>
+  <si>
+    <t>Crazy Person</t>
+  </si>
+  <si>
+    <t>mp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5429F8-D24B-41D8-A1E3-D1D98F42493A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -572,12 +581,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{86229CAD-8D80-4975-8A6D-00326E8981CC}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{BC6EB84A-B485-4AF8-BEC9-B323F6B807C4}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{897517AD-7632-4BFC-8BCF-BB712DD19FB1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{510C0C8D-7C60-4083-9543-91FF8AEF26C5}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6DEEEF7B-9179-4A8D-AA08-6F192DFA365E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputs/cert_list_test.xlsx
+++ b/inputs/cert_list_test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripadvisor-my.sharepoint.com/personal/sokeeffe_tripadvisor_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokeeffe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DA3E0087-910C-43C6-8FAA-2488D8E14BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D337F-2E9D-471E-81CE-1189A937F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{031C77C5-39FD-4A1A-B0E1-DA34E94F5509}"/>
   </bookViews>
   <sheets>
-    <sheet name="cert_list_test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
